--- a/00ResultadosArticulo2.xlsx
+++ b/00ResultadosArticulo2.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9765042891824822</t>
+          <t>0.9766092280619112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.1704318508695835</t>
+          <t>4.170551722661812</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.1453591078061995</t>
+          <t>4.1454665276477165</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -839,12 +839,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.345400849637848</t>
+          <t>4.345501354074892</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -876,22 +876,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6705339725291286</t>
+          <t>3.6706611998119536</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0705339719578664</t>
+          <t>1.07066119965791</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.5705339725291285</t>
+          <t>4.570661199811953</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.159513781566241</t>
+          <t>3.1596349298554185</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.041029125895960375</t>
+          <t>0.05789596126728477</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.031029125831049</t>
+          <t>3.0478959612645333</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.1634286673373584</t>
+          <t>3.163673728947417</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.145397705314271</t>
+          <t>4.145499176905474</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.145397607924891</t>
+          <t>4.145499241326814</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.170411290063448</t>
+          <t>4.170531181140804</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.1692010419138725</t>
+          <t>4.169319880238759</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.145352502707834</t>
+          <t>4.145458636583681</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.169460552897743</t>
+          <t>4.169586668070162</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1209,22 +1209,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.170545721143609</t>
+          <t>4.170673117782611</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9205457201096854</t>
+          <t>0.9206731173784677</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.920545721143609</t>
+          <t>4.920673117782611</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.145383048807981</t>
+          <t>4.1454898534019415</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.145409407972057</t>
+          <t>4.145511112320381</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.1704368191730135</t>
+          <t>4.170556998224438</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.14538407095096</t>
+          <t>4.145490887088485</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.170546449204554</t>
+          <t>4.170671706057885</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999974900895</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8494035263480344</t>
+          <t>1.8495074180821853</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.1374522555187879e-10</t>
+          <t>1.1361529393377674e-10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.169000635640295</t>
+          <t>4.16913919050269</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.145401613958594</t>
+          <t>4.145503337044092</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.345358845831673</t>
+          <t>4.345464903250362</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1616,22 +1616,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.170624907496987</t>
+          <t>4.170750428452021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9206249052893964</t>
+          <t>0.9207504273248608</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.920624907496987</t>
+          <t>4.920750428452021</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.169070753260039</t>
+          <t>4.169213626534324</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9626118270972637</t>
+          <t>0.9624848838094564</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.1540920660263945</t>
+          <t>4.15394179668467</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.1314724836272</t>
+          <t>4.131344403604066</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.331505735933582</t>
+          <t>4.331377071654412</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1894,22 +1894,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6541847799214473</t>
+          <t>3.654036378485036</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.054184779350185</t>
+          <t>1.0540363783309923</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.554184779921448</t>
+          <t>4.554036378485035</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1931,22 +1931,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.1431825596786984</t>
+          <t>3.143033265330094</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.34749672585256086</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>3.3374967258498094</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.147079096954152</t>
+          <t>3.147051159039413</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.131503167044212</t>
+          <t>4.131375073304315</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.131503290932351</t>
+          <t>4.131375108277963</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.154075778065682</t>
+          <t>4.153925866170653</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.152937119215189</t>
+          <t>4.152788434621297</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.131467167237225</t>
+          <t>4.131337591509455</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.153172849987441</t>
+          <t>4.15302465947668</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2227,22 +2227,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.154194663084436</t>
+          <t>4.154045343591084</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9041946620505117</t>
+          <t>0.9040453431869402</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.904194663084436</t>
+          <t>4.904045343591084</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.1314923619882515</t>
+          <t>4.131367242415153</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.131515364397113</t>
+          <t>4.131386526369384</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.154100622887666</t>
+          <t>4.153953135472003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.131493531801511</t>
+          <t>4.131368303077422</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2412,22 +2412,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.154200471564454</t>
+          <t>4.154053806649381</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.7298253418342587</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.729825344344169</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8355100978571948</t>
+          <t>1.8353832168221038</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.15418227376429</t>
+          <t>4.154033268930338</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.1733681732830408e-10</t>
+          <t>1.174703659412976e-10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.131507231717874</t>
+          <t>4.131378972224826</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.331471673377003</t>
+          <t>4.3313446295574956</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2634,22 +2634,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.154299129738987</t>
+          <t>4.154153202125159</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9042991275313961</t>
+          <t>0.29254288572626136</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.904299129738987</t>
+          <t>4.292542886853422</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.145486525775107</t>
+          <t>4.1451989992476035</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2784,52 +2784,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9556654898493099</t>
+          <t>0.9556660348718364</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9739060892209218</t>
+          <t>0.9739061330785621</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.9351201909558303</t>
+          <t>0.935125523625958</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9550283320617621</t>
+          <t>0.9550387375871449</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9627924162519449</t>
+          <t>0.9628058243767825</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9772365843557854</t>
+          <t>0.9772354862829657</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.9742764610379134</t>
+          <t>0.9743245303251449</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.9765042891824822</t>
+          <t>0.9766092280619112</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.9626118270972637</t>
+          <t>0.9624848838094564</t>
         </is>
       </c>
     </row>
@@ -2841,52 +2841,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.146204924949883</t>
+          <t>4.146205963330116</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.1483484006131175e-10</t>
+          <t>1.1483636775471e-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.122129782201925</t>
+          <t>4.122136333639563</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.145505451849499</t>
+          <t>4.14551976579351</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.15431668445643</t>
+          <t>4.154332186083046</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.17131078622238</t>
+          <t>4.171314569203929</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.168131631711679</t>
+          <t>4.168189967855635</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.1704318508695835</t>
+          <t>4.170551722661812</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4.1540920660263945</t>
+          <t>4.15394179668467</t>
         </is>
       </c>
     </row>
@@ -2898,52 +2898,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.124529908041463</t>
+          <t>4.1245304633714985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.142762431399845</t>
+          <t>4.142762456876225</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.103990308238</t>
+          <t>4.10399573854645</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.1238841513919695</t>
+          <t>4.1238949374816</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.131651437220287</t>
+          <t>4.13166517700732</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.146093094171755</t>
+          <t>4.146092887992094</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.143129664585705</t>
+          <t>4.14317402973576</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.1453591078061995</t>
+          <t>4.1454665276477165</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.1314724836272</t>
+          <t>4.131344403604066</t>
         </is>
       </c>
     </row>
@@ -2955,52 +2955,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.3245594132691485</t>
+          <t>4.3245599603162335</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.342796138008828</t>
+          <t>4.3427992562350735</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.304015804832995</t>
+          <t>4.3040210720721</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.323921075553011</t>
+          <t>4.323932948608049</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.331684902045197</t>
+          <t>4.3316977318926915</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.3461298522361895</t>
+          <t>4.346130049457164</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.343169092241638</t>
+          <t>4.343218422996209</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.345400849637848</t>
+          <t>4.345501354074892</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.331505735933582</t>
+          <t>4.331377071654412</t>
         </is>
       </c>
     </row>
@@ -3012,52 +3012,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1418974281128351e-10</t>
+          <t>1.1419820673314096e-10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.667606150701523</t>
+          <t>3.6676064772808514</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.6222016946449878</t>
+          <t>3.622208096074865</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.6456014481189647</t>
+          <t>3.6456143736616506</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.6544176620848345</t>
+          <t>3.6544341753259464</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.6714222655004782</t>
+          <t>3.6714259040345083</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.668232621291404</t>
+          <t>3.668291558187801</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.6705339725291286</t>
+          <t>3.6706611998119536</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.6541847799214473</t>
+          <t>3.654036378485036</t>
         </is>
       </c>
     </row>
@@ -3069,52 +3069,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.134954810638826</t>
+          <t>3.134955847253</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.156107009492718</t>
+          <t>3.156107848763424</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.1102304093937505</t>
+          <t>3.110236848287085</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.134693262429008</t>
+          <t>3.1347069263546077</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.1434493672185626</t>
+          <t>3.1434647297105083</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.1603530141008</t>
+          <t>3.160354320638034</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.1572326333737517</t>
+          <t>3.157293546659901</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.159513781566241</t>
+          <t>3.1596349298554185</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3.1431825596786984</t>
+          <t>3.143033265330094</t>
         </is>
       </c>
     </row>
@@ -3126,52 +3126,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.1388347575796534</t>
+          <t>3.1389540119436576</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.16001484419303</t>
+          <t>3.1601331749682764</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.1535747505452737e-10</t>
+          <t>1.1451640881007699e-10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.138588017463354</t>
+          <t>3.138718958875797</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.147356995315184</t>
+          <t>3.147492344668949</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.1642661832733934</t>
+          <t>3.164389515523224</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.1611388565979377</t>
+          <t>3.1613213363906176</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.1634286673373584</t>
+          <t>3.163673728947417</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.147079096954152</t>
+          <t>3.147051159039413</t>
         </is>
       </c>
     </row>
@@ -3183,52 +3183,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.124556592438733</t>
+          <t>4.124557138447661</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.142794108747866</t>
+          <t>4.142798503898411</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.104013087083949</t>
+          <t>4.104018412199654</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.123919895230552</t>
+          <t>4.123931268429882</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.131682838210329</t>
+          <t>4.131695801369331</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.146127990488876</t>
+          <t>4.146128763072083</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.143165543947131</t>
+          <t>4.14321675828514</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.145397705314271</t>
+          <t>4.145499176905474</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.131503167044212</t>
+          <t>4.131375073304315</t>
         </is>
       </c>
     </row>
@@ -3240,52 +3240,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.124556613265179</t>
+          <t>4.1245571592351125</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.1427941426734955</t>
+          <t>4.14279827729288</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.104013111322164</t>
+          <t>4.10401842872501</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.123919906683746</t>
+          <t>4.123931307649652</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.131682876632942</t>
+          <t>4.131695810924992</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.146127765344951</t>
+          <t>4.146128799045631</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.143165490628929</t>
+          <t>4.143216686735118</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.145397607924891</t>
+          <t>4.145499241326814</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.131503290932351</t>
+          <t>4.131375108277963</t>
         </is>
       </c>
     </row>
@@ -3297,52 +3297,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.146089837442225</t>
+          <t>4.14609087059367</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.167380262450287</t>
+          <t>4.16738428744527</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.122063854731984</t>
+          <t>4.122070434120108</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.145460272045913</t>
+          <t>4.145474708665737</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.154270321034136</t>
+          <t>4.154285934949995</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.1356712073861566e-10</t>
+          <t>1.1356781429942412e-10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.168096499690351</t>
+          <t>4.168156113758108</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.170411290063448</t>
+          <t>4.170531181140804</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4.154075778065682</t>
+          <t>4.153925866170653</t>
         </is>
       </c>
     </row>
@@ -3354,52 +3354,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.145043799279312</t>
+          <t>4.145044821572489</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.166186344218844</t>
+          <t>4.166191127626128</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.1211505528452355</t>
+          <t>4.121157196665433</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.144428650241653</t>
+          <t>4.144442650069837</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4.153174430900091</t>
+          <t>4.153189817780793</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.1700063712670055</t>
+          <t>4.170008839708512</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.16691385543638</t>
+          <t>4.166973501601833</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.1692010419138725</t>
+          <t>4.169319880238759</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4.152937119215189</t>
+          <t>4.152788434621297</t>
         </is>
       </c>
     </row>
@@ -3411,52 +3411,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.124522079601358</t>
+          <t>4.124522632986643</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.14275441950594</t>
+          <t>4.142754158524398</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.103983460769411</t>
+          <t>4.103988893335219</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.123876769152234</t>
+          <t>4.123887771592843</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.1316440246785895</t>
+          <t>4.131657342104779</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.146092130103794</t>
+          <t>4.1460868112380185</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.143123035458516</t>
+          <t>4.143165725072968</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.145352502707834</t>
+          <t>4.145458636583681</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.131467167237225</t>
+          <t>4.131337591509455</t>
         </is>
       </c>
     </row>
@@ -3468,52 +3468,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.145269680588694</t>
+          <t>4.145270715181009</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.166450335127415</t>
+          <t>4.166449877795138</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.121335951569531</t>
+          <t>4.121342227872989</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.144679549094872</t>
+          <t>4.144693473308173</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.153439993675731</t>
+          <t>4.153457309187832</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.170278741175218</t>
+          <t>4.170284927028818</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.16717501443168</t>
+          <t>4.167230971040511</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.169460552897743</t>
+          <t>4.169586668070162</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.153172849987441</t>
+          <t>4.15302465947668</t>
         </is>
       </c>
     </row>
@@ -3525,52 +3525,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.1462054962804835</t>
+          <t>4.146206539935258</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.167523948631557</t>
+          <t>4.167523107815771</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.122159724655206</t>
+          <t>4.122166134412663</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.145593108176126</t>
+          <t>4.145607066648654</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.154410074508498</t>
+          <t>4.15442712809505</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.1715305264624725</t>
+          <t>4.171535966624448</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.168240635791178</t>
+          <t>4.1682954861820765</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.170545721143609</t>
+          <t>4.170673117782611</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.154194663084436</t>
+          <t>4.154045343591084</t>
         </is>
       </c>
     </row>
@@ -3582,52 +3582,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.124547276573467</t>
+          <t>4.1245478254801915</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.142783807178823</t>
+          <t>4.142784908035256</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.104004229170896</t>
+          <t>4.104009591967014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.123911157459629</t>
+          <t>4.12391726304387</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.1316788345428925</t>
+          <t>4.131694121260605</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.146113787853271</t>
+          <t>4.14611397482877</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.143147060657275</t>
+          <t>4.143200165864404</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.145383048807981</t>
+          <t>4.1454898534019415</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.1314923619882515</t>
+          <t>4.131367242415153</t>
         </is>
       </c>
     </row>
@@ -3639,52 +3639,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.124566889959872</t>
+          <t>4.124567434796906</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.142806567331569</t>
+          <t>4.142807754695607</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.104021133059222</t>
+          <t>4.104026171149655</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.1365991500917123e-10</t>
+          <t>1.1365995674369181e-10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.131701945091889</t>
+          <t>4.131712524907525</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.146139850308195</t>
+          <t>4.146137604559325</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.143179354257783</t>
+          <t>4.143228643617756</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.145409407972057</t>
+          <t>4.145511112320381</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.131515364397113</t>
+          <t>4.131386526369384</t>
         </is>
       </c>
     </row>
@@ -3696,52 +3696,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.146049251273766</t>
+          <t>4.146050276372824</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.167313623130074</t>
+          <t>4.167317654528564</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.12202920797386</t>
+          <t>4.122035711417337</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.145676065558617</t>
+          <t>4.145693743869881</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.1542572325329995e-10</t>
+          <t>1.1542493957518618e-10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.171187452574477</t>
+          <t>4.171189136856018</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.168156449161315</t>
+          <t>4.168212613444049</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.1704368191730135</t>
+          <t>4.170556998224438</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.154100622887666</t>
+          <t>4.153953135472003</t>
         </is>
       </c>
     </row>
@@ -3753,52 +3753,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.12454823782243</t>
+          <t>4.124548786248073</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.142785024804429</t>
+          <t>4.142786059781357</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.104005042484206</t>
+          <t>4.104010407419503</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.123912490671055</t>
+          <t>4.12391807855567</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.131679969398217</t>
+          <t>4.131694946617002</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.146115698220931</t>
+          <t>4.1461150725244265</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.143148701939919</t>
+          <t>4.143201605589966</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.14538407095096</t>
+          <t>4.145490887088485</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.131493531801511</t>
+          <t>4.131368303077422</t>
         </is>
       </c>
     </row>
@@ -3810,52 +3810,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.146152720797586</t>
+          <t>4.146153760322827</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.167432980829485</t>
+          <t>4.167435436590585</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.122111316760008</t>
+          <t>4.122117756759231</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.145921081291435</t>
+          <t>4.1459334375763826</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.154750872692871</t>
+          <t>4.154769511862675</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.171305482188862</t>
+          <t>4.171307795898294</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.16825975620229</t>
+          <t>4.168321628999273</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.170546449204554</t>
+          <t>4.170671706057885</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.154200471564454</t>
+          <t>4.154053806649381</t>
         </is>
       </c>
     </row>
@@ -3867,52 +3867,52 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8285631721468523</t>
+          <t>1.8285637523246387</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.8468034312724568</t>
+          <t>1.84680421420882</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.8080177221298706</t>
+          <t>1.8080230930044454</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.8279259288748362</t>
+          <t>1.827936633968476</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.8356918626022818</t>
+          <t>1.8357050332219327</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.8501359708407221</t>
+          <t>1.8501341009064387</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.8471723559916662</t>
+          <t>1.8472226324290189</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.8494035263480344</t>
+          <t>1.8495074180821853</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.8355100978571948</t>
+          <t>1.8353832168221038</t>
         </is>
       </c>
     </row>
@@ -3924,52 +3924,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.146084698638917</t>
+          <t>4.146085462676185</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.167379680749196</t>
+          <t>4.167382643674838</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.122055587767754</t>
+          <t>4.122061936642223</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.145564285717029</t>
+          <t>4.14557918713231</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.154378750302035</t>
+          <t>4.154394063881521</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.171291390645811</t>
+          <t>4.171293874250476</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.16817470903466</t>
+          <t>4.16823352605073</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.1374522555187879e-10</t>
+          <t>1.1361529393377674e-10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.15418227376429</t>
+          <t>4.154033268930338</t>
         </is>
       </c>
     </row>
@@ -3981,52 +3981,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.145179804169385</t>
+          <t>4.145182886918263</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.166347650165618</t>
+          <t>4.166350641735339</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.121241341606212</t>
+          <t>4.121249091072268</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.1440660131026394</t>
+          <t>4.144076981545741</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.152742452541212</t>
+          <t>4.152755392303096</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.170217812861979</t>
+          <t>4.1702174036282775</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.166714933698994</t>
+          <t>4.166780242107396</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4.169000635640295</t>
+          <t>4.16913919050269</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.1733681732830408e-10</t>
+          <t>1.174703659412976e-10</t>
         </is>
       </c>
     </row>
@@ -4038,52 +4038,52 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.1245597784612755</t>
+          <t>4.124560369259363</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.142798541398339</t>
+          <t>4.142801139193643</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.104015036245395</t>
+          <t>4.104020379561138</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.1239223602004556</t>
+          <t>4.123934123845744</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.131688540709783</t>
+          <t>4.13170103806053</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.146132578135396</t>
+          <t>4.1461316760090074</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.1518228553103595e-10</t>
+          <t>1.1513679685701301e-10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.145401613958594</t>
+          <t>4.145503337044092</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.131507231717874</t>
+          <t>4.131378972224826</t>
         </is>
       </c>
     </row>
@@ -4095,52 +4095,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.324526283861074</t>
+          <t>4.324527179500479</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.342759093828347</t>
+          <t>4.342759914531678</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.303986369880333</t>
+          <t>4.303992097466376</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.32388130862125</t>
+          <t>4.323893619621977</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.331651157711081</t>
+          <t>4.331665594832732</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4.346083736110182</t>
+          <t>4.346090794376328</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.343125060527932</t>
+          <t>4.343173866816414</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4.345358845831673</t>
+          <t>4.345464903250362</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.331471673377003</t>
+          <t>4.3313446295574956</t>
         </is>
       </c>
     </row>
@@ -4152,52 +4152,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.146199927107234</t>
+          <t>4.146201370111077</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.167516729199661</t>
+          <t>4.167517729120693</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.122151196179519</t>
+          <t>4.122157974776127</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.145673072772639</t>
+          <t>4.145687839147222</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4.154496825580144</t>
+          <t>4.1545148875204605</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.17142517286873</t>
+          <t>4.171431057592792</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.168300333351399</t>
+          <t>4.168359989661517</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4.170624907496987</t>
+          <t>4.170750428452021</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4.154299129738987</t>
+          <t>4.154153202125159</t>
         </is>
       </c>
     </row>
@@ -4209,52 +4209,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.14528294635464</t>
+          <t>4.145285023864203</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.166467239128178</t>
+          <t>4.166469119901674</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.121319952708204</t>
+          <t>4.121326544038847</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.144094956956423</t>
+          <t>4.144103148674724</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.152778736580709</t>
+          <t>4.152791319759734</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.1703334700913235</t>
+          <t>4.170336838143203</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.166770859014568</t>
+          <t>4.166839262320034</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4.169070753260039</t>
+          <t>4.169213626534324</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4.145486525775107</t>
+          <t>4.1451989992476035</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>399.99999997111746</t>
+          <t>400.0000000356312</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>420.0000001243805</t>
+          <t>420.0000000374189</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>350.0000000571262</t>
+          <t>350.00000001540434</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>298.9999999935089</t>
+          <t>298.9999999997249</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>400.0000002510867</t>
+          <t>400.00000012471844</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>400.00000025099104</t>
+          <t>400.0000001250004</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>400.00000010462</t>
+          <t>400.0000000410847</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>400.0000001033924</t>
+          <t>400.00000004041436</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>400.0000001049183</t>
+          <t>400.0000000412478</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>420.00000022297763</t>
+          <t>420.00000009118696</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>400.0000004932788</t>
+          <t>399.99999994878533</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>400.00000022075903</t>
+          <t>400.00000011271607</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>400.0000002395249</t>
+          <t>400.000000119644</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4999,12 +4999,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9556654898493099</t>
+          <t>0.9556660348718364</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.146204924949883</t>
+          <t>4.146205963330116</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5073,12 +5073,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.124529908041463</t>
+          <t>4.1245304633714985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5110,12 +5110,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.3245594132691485</t>
+          <t>4.3245599603162335</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5147,12 +5147,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.1418974281128351e-10</t>
+          <t>1.1419820673314096e-10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5184,22 +5184,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.134954810638826</t>
+          <t>3.134955847253</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.5908486241929087</t>
+          <t>0.5907549512979005</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.5808486241279973</t>
+          <t>3.580754951295149</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.1388347575796534</t>
+          <t>3.1389540119436576</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.124556592438733</t>
+          <t>4.124557138447661</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.124556613265179</t>
+          <t>4.1245571592351125</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.146089837442225</t>
+          <t>4.14609087059367</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -5369,12 +5369,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.145043799279312</t>
+          <t>4.145044821572489</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5406,12 +5406,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.124522079601358</t>
+          <t>4.124522632986643</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5443,12 +5443,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.145269680588694</t>
+          <t>4.145270715181009</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5480,22 +5480,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.1462054962804835</t>
+          <t>4.146206539935258</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8962054952465595</t>
+          <t>0.8962065395311143</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.8962054962804835</t>
+          <t>4.896206539935258</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.124547276573467</t>
+          <t>4.1245478254801915</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.124566889959872</t>
+          <t>4.124567434796906</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.146049251273766</t>
+          <t>4.146050276372824</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.12454823782243</t>
+          <t>4.124548786248073</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5665,17 +5665,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.146152720797586</t>
+          <t>4.146153760322827</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999974900895</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8285631721468523</t>
+          <t>1.8285637523246387</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5739,12 +5739,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.146084698638917</t>
+          <t>4.146085462676185</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.145179804169385</t>
+          <t>4.145182886918263</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5813,12 +5813,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.1245597784612755</t>
+          <t>4.124560369259363</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5850,12 +5850,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.324526283861074</t>
+          <t>4.324527179500479</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.146199927107234</t>
+          <t>4.146201370111077</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.8961999248996433</t>
+          <t>0.8962013689839168</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.896199927107234</t>
+          <t>4.896201370111077</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.14528294635464</t>
+          <t>4.145285023864203</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9739060892209218</t>
+          <t>0.9739061330785621</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6054,12 +6054,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.1483484006131175e-10</t>
+          <t>1.1483636775471e-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.142762431399845</t>
+          <t>4.142762456876225</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.342796138008828</t>
+          <t>4.3427992562350735</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6165,22 +6165,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.667606150701523</t>
+          <t>3.6676064772808514</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0676061501302607</t>
+          <t>1.067606477126808</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.567606150701523</t>
+          <t>4.567606477280851</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6202,12 +6202,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.156107009492718</t>
+          <t>3.156107848763424</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6239,12 +6239,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.16001484419303</t>
+          <t>3.1601331749682764</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.142794108747866</t>
+          <t>4.142798503898411</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -6313,12 +6313,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.1427941426734955</t>
+          <t>4.14279827729288</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.167380262450287</t>
+          <t>4.16738428744527</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6387,12 +6387,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.166186344218844</t>
+          <t>4.166191127626128</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.14275441950594</t>
+          <t>4.142754158524398</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -6461,12 +6461,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.166450335127415</t>
+          <t>4.166449877795138</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -6498,22 +6498,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.167523948631557</t>
+          <t>4.167523107815771</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9175239475976333</t>
+          <t>0.9175231074116272</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.917523948631557</t>
+          <t>4.917523107815771</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -6535,12 +6535,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.142783807178823</t>
+          <t>4.142784908035256</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -6572,12 +6572,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.142806567331569</t>
+          <t>4.142807754695607</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -6609,12 +6609,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.167313623130074</t>
+          <t>4.167317654528564</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.142785024804429</t>
+          <t>4.142786059781357</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6683,22 +6683,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.167432980829485</t>
+          <t>4.167435436590585</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9778876384994364</t>
+          <t>0.9778327134587121</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.977887641009347</t>
+          <t>4.977832714708716</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6720,12 +6720,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8468034312724568</t>
+          <t>1.84680421420882</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6757,12 +6757,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.167379680749196</t>
+          <t>4.167382643674838</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -6794,12 +6794,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.166347650165618</t>
+          <t>4.166350641735339</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.142798541398339</t>
+          <t>4.142801139193643</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6868,12 +6868,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.342759093828347</t>
+          <t>4.342759914531678</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6905,22 +6905,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.167516729199661</t>
+          <t>4.167517729120693</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9175167269920701</t>
+          <t>0.9175177279935323</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.917516729199661</t>
+          <t>4.917517729120693</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6942,12 +6942,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.166467239128178</t>
+          <t>4.166469119901674</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9351201909558303</t>
+          <t>0.935125523625958</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.122129782201925</t>
+          <t>4.122136333639563</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.103990308238</t>
+          <t>4.10399573854645</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -7146,12 +7146,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.304015804832995</t>
+          <t>4.3040210720721</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7183,22 +7183,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6222016946449878</t>
+          <t>3.622208096074865</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0222016940737255</t>
+          <t>1.0222080959208215</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.522201694644988</t>
+          <t>4.5222080960748645</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.1102304093937505</t>
+          <t>3.110236848287085</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1535747505452737e-10</t>
+          <t>1.1451640881007699e-10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.104013087083949</t>
+          <t>4.104018412199654</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -7331,12 +7331,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.104013111322164</t>
+          <t>4.10401842872501</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.122063854731984</t>
+          <t>4.122070434120108</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.1211505528452355</t>
+          <t>4.121157196665433</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.103983460769411</t>
+          <t>4.103988893335219</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.121335951569531</t>
+          <t>4.121342227872989</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -7516,22 +7516,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.122159724655206</t>
+          <t>4.122166134412663</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8721597236212819</t>
+          <t>0.8721661340085198</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.872159724655206</t>
+          <t>4.872166134412663</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.104004229170896</t>
+          <t>4.104009591967014</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7590,12 +7590,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.104021133059222</t>
+          <t>4.104026171149655</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.12202920797386</t>
+          <t>4.122035711417337</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7664,12 +7664,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.104005042484206</t>
+          <t>4.104010407419503</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7701,22 +7701,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.122111316760008</t>
+          <t>4.122117756759231</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.09308078979780189</t>
+          <t>0.11588976884670961</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.093080792307712</t>
+          <t>4.115889770096714</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7738,12 +7738,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8080177221298706</t>
+          <t>1.8080230930044454</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7775,12 +7775,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.122055587767754</t>
+          <t>4.122061936642223</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.121241341606212</t>
+          <t>4.121249091072268</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.104015036245395</t>
+          <t>4.104020379561138</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7886,12 +7886,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.303986369880333</t>
+          <t>4.303992097466376</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -7923,22 +7923,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.122151196179519</t>
+          <t>4.122157974776127</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.8721511939719289</t>
+          <t>0.8721579736489664</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.872151196179519</t>
+          <t>4.872157974776127</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.121319952708204</t>
+          <t>4.121326544038847</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9550283320617621</t>
+          <t>0.9550387375871449</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8090,12 +8090,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.145505451849499</t>
+          <t>4.14551976579351</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8127,12 +8127,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.1238841513919695</t>
+          <t>4.1238949374816</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8164,12 +8164,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.323921075553011</t>
+          <t>4.323932948608049</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -8201,22 +8201,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6456014481189647</t>
+          <t>3.6456143736616506</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0456014475477025</t>
+          <t>0.467433828639553</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.545601448118965</t>
+          <t>3.9674338287935966</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8238,22 +8238,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.134693262429008</t>
+          <t>3.1347069263546077</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.09947340965319251</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>3.089473409650441</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -8275,12 +8275,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.138588017463354</t>
+          <t>3.138718958875797</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -8312,12 +8312,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.123919895230552</t>
+          <t>4.123931268429882</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -8349,12 +8349,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.123919906683746</t>
+          <t>4.123931307649652</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.145460272045913</t>
+          <t>4.145474708665737</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -8423,12 +8423,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.144428650241653</t>
+          <t>4.144442650069837</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -8460,12 +8460,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.123876769152234</t>
+          <t>4.123887771592843</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.144679549094872</t>
+          <t>4.144693473308173</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -8534,22 +8534,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.145593108176126</t>
+          <t>4.145607066648654</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8955931071422016</t>
+          <t>0.8956070662445104</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.895593108176126</t>
+          <t>4.895607066648654</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -8571,12 +8571,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.123911157459629</t>
+          <t>4.12391726304387</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.1365991500917123e-10</t>
+          <t>1.1365995674369181e-10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -8645,12 +8645,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.145676065558617</t>
+          <t>4.145693743869881</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.123912490671055</t>
+          <t>4.12391807855567</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -8719,22 +8719,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.145921081291435</t>
+          <t>4.1459334375763826</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.5583104835814869</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.558310486091397</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8279259288748362</t>
+          <t>1.827936633968476</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -8793,12 +8793,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.145564285717029</t>
+          <t>4.14557918713231</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8830,12 +8830,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.1440660131026394</t>
+          <t>4.144076981545741</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8867,12 +8867,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.1239223602004556</t>
+          <t>4.123934123845744</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.32388130862125</t>
+          <t>4.323893619621977</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8941,22 +8941,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.145673072772639</t>
+          <t>4.145687839147222</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.8956730705650484</t>
+          <t>0.895687838020061</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.895673072772639</t>
+          <t>4.895687839147222</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8978,12 +8978,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.144094956956423</t>
+          <t>4.144103148674724</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -9071,12 +9071,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9627924162519449</t>
+          <t>0.9628058243767825</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.15431668445643</t>
+          <t>4.154332186083046</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9145,12 +9145,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.131651437220287</t>
+          <t>4.13166517700732</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9182,12 +9182,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.331684902045197</t>
+          <t>4.3316977318926915</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -9219,22 +9219,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6544176620848345</t>
+          <t>3.6544341753259464</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0544176615135723</t>
+          <t>1.0544341751719029</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.554417662084834</t>
+          <t>4.554434175325946</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.1434493672185626</t>
+          <t>3.1434647297105083</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -9293,12 +9293,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.147356995315184</t>
+          <t>3.147492344668949</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -9330,12 +9330,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.131682838210329</t>
+          <t>4.131695801369331</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -9367,12 +9367,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.131682876632942</t>
+          <t>4.131695810924992</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -9404,12 +9404,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.154270321034136</t>
+          <t>4.154285934949995</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.153174430900091</t>
+          <t>4.153189817780793</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -9478,12 +9478,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.1316440246785895</t>
+          <t>4.131657342104779</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -9515,12 +9515,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.153439993675731</t>
+          <t>4.153457309187832</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -9552,22 +9552,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.154410074508498</t>
+          <t>4.15442712809505</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9044100734745744</t>
+          <t>0.9044271276909068</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.904410074508498</t>
+          <t>4.90442712809505</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.1316788345428925</t>
+          <t>4.131694121260605</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -9626,12 +9626,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.131701945091889</t>
+          <t>4.131712524907525</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -9663,12 +9663,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.1542572325329995e-10</t>
+          <t>1.1542493957518618e-10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.131679969398217</t>
+          <t>4.131694946617002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -9737,22 +9737,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.154750872692871</t>
+          <t>4.154769511862675</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.6979828089498186</t>
+          <t>0.7116514416729091</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.697982811459729</t>
+          <t>4.711651442922912</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -9774,12 +9774,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8356918626022818</t>
+          <t>1.8357050332219327</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -9811,12 +9811,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.154378750302035</t>
+          <t>4.154394063881521</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -9848,12 +9848,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.152742452541212</t>
+          <t>4.152755392303096</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.131688540709783</t>
+          <t>4.13170103806053</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -9922,12 +9922,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.331651157711081</t>
+          <t>4.331665594832732</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -9959,22 +9959,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.154496825580144</t>
+          <t>4.1545148875204605</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9044968233725532</t>
+          <t>0.9045148863932999</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.904496825580144</t>
+          <t>4.9045148875204605</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.152778736580709</t>
+          <t>4.152791319759734</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -10089,12 +10089,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9772365843557854</t>
+          <t>0.9772354862829657</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -10126,12 +10126,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.17131078622238</t>
+          <t>4.171314569203929</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10163,12 +10163,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.146093094171755</t>
+          <t>4.146092887992094</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10200,12 +10200,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.3461298522361895</t>
+          <t>4.346130049457164</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10237,22 +10237,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.6714222655004782</t>
+          <t>3.6714259040345083</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.071422264929216</t>
+          <t>1.0714259038804648</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.571422265500479</t>
+          <t>4.571425904034508</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -10274,22 +10274,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.1603530141008</t>
+          <t>3.160354320638034</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.05736546167827279</t>
+          <t>0.08159113847262534</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.0473654616133614</t>
+          <t>3.071591138469874</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.1642661832733934</t>
+          <t>3.164389515523224</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10348,12 +10348,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.146127990488876</t>
+          <t>4.146128763072083</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -10385,12 +10385,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.146127765344951</t>
+          <t>4.146128799045631</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -10422,12 +10422,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.1356712073861566e-10</t>
+          <t>1.1356781429942412e-10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -10459,12 +10459,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.1700063712670055</t>
+          <t>4.170008839708512</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -10496,12 +10496,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.146092130103794</t>
+          <t>4.1460868112380185</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.170278741175218</t>
+          <t>4.170284927028818</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -10570,22 +10570,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.1715305264624725</t>
+          <t>4.171535966624448</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9215305254285484</t>
+          <t>0.9215359662203042</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.9215305264624725</t>
+          <t>4.921535966624448</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10607,12 +10607,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.146113787853271</t>
+          <t>4.14611397482877</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.146139850308195</t>
+          <t>4.146137604559325</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -10681,12 +10681,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.171187452574477</t>
+          <t>4.171189136856018</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -10718,12 +10718,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.146115698220931</t>
+          <t>4.1461150725244265</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -10755,17 +10755,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.171305482188862</t>
+          <t>4.171307795898294</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999974900895</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10792,12 +10792,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8501359708407221</t>
+          <t>1.8501341009064387</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -10829,12 +10829,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.171291390645811</t>
+          <t>4.171293874250476</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -10866,12 +10866,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.170217812861979</t>
+          <t>4.1702174036282775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -10903,12 +10903,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.146132578135396</t>
+          <t>4.1461316760090074</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -10940,12 +10940,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.346083736110182</t>
+          <t>4.346090794376328</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -10977,22 +10977,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.17142517286873</t>
+          <t>4.171431057592792</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9214251706611396</t>
+          <t>0.9214310564656314</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.92142517286873</t>
+          <t>4.921431057592792</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -11014,12 +11014,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.1703334700913235</t>
+          <t>4.170336838143203</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -11107,12 +11107,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9742764610379134</t>
+          <t>0.9743245303251449</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8311029815323103</t>
+          <t>0.831102981641134</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.168131631711679</t>
+          <t>4.168189967855635</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.000000000652878</t>
+          <t>4.000000000176049</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.143129664585705</t>
+          <t>4.14317402973576</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.9999999997111746</t>
+          <t>4.000000000356312</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11218,12 +11218,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.343169092241638</t>
+          <t>4.343218422996209</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.200000001243805</t>
+          <t>4.200000000374189</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -11255,22 +11255,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.500000000571262</t>
+          <t>3.5000000001540434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.668232621291404</t>
+          <t>3.668291558187801</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0682326207201416</t>
+          <t>0.46743371449267457</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.568232621291404</t>
+          <t>3.967433714646718</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -11292,22 +11292,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.9899999999350886</t>
+          <t>2.9899999999972486</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.1572326333737517</t>
+          <t>3.157293546659901</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.020323278215743288</t>
+          <t>0.6207495114114874</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.010323278150832</t>
+          <t>3.610749511408736</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -11329,12 +11329,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.1611388565979377</t>
+          <t>3.1613213363906176</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.9937177172947553</t>
+          <t>2.993835951197538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11366,12 +11366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.143165543947131</t>
+          <t>4.14321675828514</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -11403,12 +11403,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.143165490628929</t>
+          <t>4.143216686735118</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.000000001046187</t>
+          <t>4.00000000041084</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.168096499690351</t>
+          <t>4.168156113758108</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -11477,12 +11477,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.16691385543638</t>
+          <t>4.166973501601833</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.143123035458516</t>
+          <t>4.143165725072968</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.0000000010462005</t>
+          <t>4.000000000410847</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -11551,12 +11551,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.16717501443168</t>
+          <t>4.167230971040511</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.000000001049183</t>
+          <t>4.000000000412478</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -11588,22 +11588,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.000000001033924</t>
+          <t>4.000000000404143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.168240635791178</t>
+          <t>4.1682954861820765</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9182406347572538</t>
+          <t>0.9182954857779331</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.918240635791178</t>
+          <t>4.9182954861820765</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -11625,12 +11625,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.143147060657275</t>
+          <t>4.143200165864404</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -11640,7 +11640,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11662,12 +11662,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.143179354257783</t>
+          <t>4.143228643617756</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.000000002510873</t>
+          <t>4.000000001247187</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -11699,12 +11699,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.168156449161315</t>
+          <t>4.168212613444049</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -11736,12 +11736,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.143148701939919</t>
+          <t>4.143201605589966</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.000000002510867</t>
+          <t>4.000000001247185</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11773,17 +11773,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.0000000025099105</t>
+          <t>4.000000001250004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.16825975620229</t>
+          <t>4.168321628999273</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999974900895</t>
+          <t>0.9999999987499963</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.8471723559916662</t>
+          <t>1.8472226324290189</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7039999398946386</t>
+          <t>1.7039999387651874</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11847,12 +11847,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.16817470903466</t>
+          <t>4.16823352605073</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -11884,12 +11884,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.166714933698994</t>
+          <t>4.166780242107396</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.1518228553103595e-10</t>
+          <t>1.1513679685701301e-10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.0000000049327875</t>
+          <t>3.9999999994878532</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.343125060527932</t>
+          <t>4.343173866816414</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.2000000022297765</t>
+          <t>4.20000000091187</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11995,22 +11995,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4.0000000022075906</t>
+          <t>4.000000001127161</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.168300333351399</t>
+          <t>4.168359989661517</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.9183003311438087</t>
+          <t>0.9183599885343563</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.918300333351399</t>
+          <t>4.918359989661517</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -12032,12 +12032,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.166770859014568</t>
+          <t>4.166839262320034</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000002395249</t>
+          <t>4.00000000119644</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
